--- a/Jogos_do_Dia/2023-06-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>League</t>
   </si>
@@ -133,18 +133,18 @@
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>South America Copa Libertadores</t>
+    <t>Brazil Serie C</t>
   </si>
   <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -175,39 +175,42 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Atlètic Club d'Escaldes</t>
   </si>
   <si>
     <t>Inter Turku</t>
   </si>
   <si>
+    <t>KTP</t>
+  </si>
+  <si>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>KuPS</t>
+  </si>
+  <si>
+    <t>Kuressaare</t>
+  </si>
+  <si>
+    <t>Haka</t>
+  </si>
+  <si>
     <t>Honka</t>
   </si>
   <si>
-    <t>Haka</t>
-  </si>
-  <si>
-    <t>KTP</t>
-  </si>
-  <si>
-    <t>SJK</t>
-  </si>
-  <si>
-    <t>KuPS</t>
-  </si>
-  <si>
-    <t>Kuressaare</t>
-  </si>
-  <si>
     <t>ES Tunis</t>
   </si>
   <si>
+    <t>CS Sfaxien</t>
+  </si>
+  <si>
     <t>Ben Guerdane</t>
   </si>
   <si>
-    <t>CS Sfaxien</t>
-  </si>
-  <si>
     <t>Tammeka</t>
   </si>
   <si>
@@ -220,24 +223,24 @@
     <t>Tre Penne</t>
   </si>
   <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
     <t>Criciúma</t>
   </si>
   <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
-    <t>Libertad</t>
+    <t>Botafogo PB</t>
   </si>
   <si>
     <t>Potiguar Mossoró</t>
   </si>
   <si>
-    <t>Botafogo PB</t>
-  </si>
-  <si>
     <t>Sergipe</t>
   </si>
   <si>
@@ -253,39 +256,45 @@
     <t>Atlético Nacional</t>
   </si>
   <si>
+    <t>Novorizontino</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
     <t>Budućnost</t>
   </si>
   <si>
     <t>Ilves</t>
   </si>
   <si>
+    <t>Lahti</t>
+  </si>
+  <si>
+    <t>Oulu</t>
+  </si>
+  <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
     <t>VPS</t>
   </si>
   <si>
-    <t>HJK</t>
-  </si>
-  <si>
-    <t>Lahti</t>
-  </si>
-  <si>
-    <t>Oulu</t>
-  </si>
-  <si>
-    <t>Mariehamn</t>
-  </si>
-  <si>
-    <t>Trans</t>
-  </si>
-  <si>
     <t>Club Africain</t>
   </si>
   <si>
+    <t>Tataouine</t>
+  </si>
+  <si>
     <t>Etoile du Sahel</t>
   </si>
   <si>
-    <t>Tataouine</t>
-  </si>
-  <si>
     <t>Vaprus</t>
   </si>
   <si>
@@ -298,24 +307,24 @@
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>CRB</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>Alianza Lima</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
+    <t>Paysandu</t>
   </si>
   <si>
     <t>Pacajus</t>
   </si>
   <si>
-    <t>Paysandu</t>
-  </si>
-  <si>
     <t>Cruzeiro Arapiraca</t>
   </si>
   <si>
@@ -329,6 +338,12 @@
   </si>
   <si>
     <t>Patronato</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Tombense</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,58 +832,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -898,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -924,19 +939,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="H3">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="J3">
         <v>1.07</v>
@@ -951,10 +966,10 @@
         <v>3.05</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O3">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1031,97 +1046,97 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="H4">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>4.19</v>
+        <v>3.3</v>
       </c>
       <c r="J4">
         <v>1.04</v>
       </c>
       <c r="K4">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="M4">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="O4">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="P4">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q4">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
         <v>2.05</v>
       </c>
-      <c r="S4">
-        <v>1.7</v>
-      </c>
       <c r="T4">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="U4">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V4">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W4">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="Z4">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>2.21</v>
+      </c>
+      <c r="AB4">
+        <v>1.82</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>2.33</v>
+      </c>
+      <c r="AE4">
+        <v>1.18</v>
+      </c>
+      <c r="AF4">
         <v>1.34</v>
       </c>
-      <c r="AA4">
-        <v>2.87</v>
-      </c>
-      <c r="AB4">
-        <v>1.41</v>
-      </c>
-      <c r="AC4">
-        <v>9</v>
-      </c>
-      <c r="AD4">
-        <v>3.58</v>
-      </c>
-      <c r="AE4">
-        <v>1.21</v>
-      </c>
-      <c r="AF4">
-        <v>1.38</v>
-      </c>
       <c r="AG4">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AH4">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1138,37 +1153,37 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>3.72</v>
+        <v>1.77</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>1.77</v>
+        <v>4.25</v>
       </c>
       <c r="J5">
         <v>1.07</v>
       </c>
       <c r="K5">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M5">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O5">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
         <v>1.44</v>
@@ -1177,58 +1192,58 @@
         <v>2.63</v>
       </c>
       <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
+        <v>1.22</v>
+      </c>
+      <c r="U5">
+        <v>1.33</v>
+      </c>
+      <c r="V5">
         <v>2.05</v>
       </c>
-      <c r="S5">
-        <v>1.7</v>
-      </c>
-      <c r="T5">
-        <v>2.12</v>
-      </c>
-      <c r="U5">
-        <v>1.29</v>
-      </c>
-      <c r="V5">
-        <v>1.17</v>
-      </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Y5">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="Z5">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AB5">
-        <v>3.49</v>
+        <v>1.51</v>
       </c>
       <c r="AC5">
         <v>9</v>
       </c>
       <c r="AD5">
-        <v>1.41</v>
+        <v>3.06</v>
       </c>
       <c r="AE5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF5">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AG5">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI5">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1242,40 +1257,40 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6">
-        <v>2.03</v>
+        <v>1.33</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M6">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O6">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1284,63 +1299,63 @@
         <v>3</v>
       </c>
       <c r="R6">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T6">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="U6">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V6">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="W6">
-        <v>1.33</v>
+        <v>2.14</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y6">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="Z6">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AA6">
-        <v>2.21</v>
+        <v>2.84</v>
       </c>
       <c r="AB6">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="AC6">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD6">
-        <v>2.33</v>
+        <v>4.07</v>
       </c>
       <c r="AE6">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF6">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AG6">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AI6">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>45104</v>
@@ -1349,100 +1364,100 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3.16</v>
+        <v>3.3</v>
       </c>
       <c r="I7">
-        <v>3.66</v>
+        <v>3.25</v>
       </c>
       <c r="J7">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>12.75</v>
       </c>
       <c r="L7">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="M7">
+        <v>3.6</v>
+      </c>
+      <c r="N7">
+        <v>1.68</v>
+      </c>
+      <c r="O7">
+        <v>1.83</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>2.1</v>
-      </c>
-      <c r="O7">
+      <c r="R7">
         <v>1.65</v>
       </c>
-      <c r="P7">
-        <v>1.44</v>
-      </c>
-      <c r="Q7">
-        <v>2.63</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="T7">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="W7">
-        <v>2.67</v>
+        <v>0.5</v>
       </c>
       <c r="X7">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="Y7">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="Z7">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AA7">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="AB7">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>2.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1456,105 +1471,105 @@
         <v>44</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8">
+        <v>4.75</v>
+      </c>
+      <c r="H8">
+        <v>3.5</v>
+      </c>
+      <c r="I8">
+        <v>1.67</v>
+      </c>
+      <c r="J8">
+        <v>1.07</v>
+      </c>
+      <c r="K8">
+        <v>9.5</v>
+      </c>
+      <c r="L8">
+        <v>1.36</v>
+      </c>
+      <c r="M8">
+        <v>3.15</v>
+      </c>
+      <c r="N8">
+        <v>2.07</v>
+      </c>
+      <c r="O8">
+        <v>1.69</v>
+      </c>
+      <c r="P8">
         <v>1.44</v>
       </c>
-      <c r="H8">
-        <v>3.64</v>
-      </c>
-      <c r="I8">
-        <v>5.25</v>
-      </c>
-      <c r="J8">
-        <v>1.05</v>
-      </c>
-      <c r="K8">
-        <v>12.5</v>
-      </c>
-      <c r="L8">
-        <v>1.28</v>
-      </c>
-      <c r="M8">
-        <v>3.8</v>
-      </c>
-      <c r="N8">
-        <v>1.8</v>
-      </c>
-      <c r="O8">
+      <c r="Q8">
+        <v>2.63</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.7</v>
+      </c>
+      <c r="T8">
+        <v>2.12</v>
+      </c>
+      <c r="U8">
+        <v>1.29</v>
+      </c>
+      <c r="V8">
+        <v>1.17</v>
+      </c>
+      <c r="W8">
+        <v>1.4</v>
+      </c>
+      <c r="X8">
+        <v>1.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.26</v>
+      </c>
+      <c r="Z8">
         <v>1.74</v>
       </c>
-      <c r="P8">
-        <v>1.36</v>
-      </c>
-      <c r="Q8">
+      <c r="AA8">
         <v>3</v>
       </c>
-      <c r="R8">
-        <v>2.1</v>
-      </c>
-      <c r="S8">
-        <v>1.67</v>
-      </c>
-      <c r="T8">
-        <v>1.08</v>
-      </c>
-      <c r="U8">
-        <v>1.2</v>
-      </c>
-      <c r="V8">
-        <v>2.9</v>
-      </c>
-      <c r="W8">
-        <v>2.14</v>
-      </c>
-      <c r="X8">
-        <v>0.2</v>
-      </c>
-      <c r="Y8">
-        <v>1.58</v>
-      </c>
-      <c r="Z8">
-        <v>1.26</v>
-      </c>
-      <c r="AA8">
-        <v>2.84</v>
-      </c>
       <c r="AB8">
+        <v>3.49</v>
+      </c>
+      <c r="AC8">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>1.41</v>
+      </c>
+      <c r="AE8">
+        <v>1.18</v>
+      </c>
+      <c r="AF8">
         <v>1.34</v>
       </c>
-      <c r="AC8">
-        <v>9.5</v>
-      </c>
-      <c r="AD8">
-        <v>4.07</v>
-      </c>
-      <c r="AE8">
-        <v>1.21</v>
-      </c>
-      <c r="AF8">
-        <v>1.38</v>
-      </c>
       <c r="AG8">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AH8">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>45104</v>
@@ -1563,100 +1578,100 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G9">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="H9">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
         <v>1.04</v>
       </c>
       <c r="K9">
-        <v>12.75</v>
+        <v>7.8</v>
       </c>
       <c r="L9">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="N9">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="O9">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="T9">
+        <v>1.17</v>
+      </c>
+      <c r="U9">
         <v>1.29</v>
       </c>
-      <c r="U9">
-        <v>1.25</v>
-      </c>
       <c r="V9">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="X9">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y9">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Z9">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AA9">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1673,58 +1688,58 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="W10">
         <v>1.96</v>
@@ -1780,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1834,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="X11">
-        <v>2.15</v>
+        <v>0.77</v>
       </c>
       <c r="Y11">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>0.65</v>
       </c>
       <c r="AA11">
-        <v>2.46</v>
+        <v>2.13</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1887,10 +1902,10 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1941,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1.12</v>
+        <v>1.69</v>
       </c>
       <c r="X12">
-        <v>0.77</v>
+        <v>2.15</v>
       </c>
       <c r="Y12">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="Z12">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="AA12">
-        <v>2.13</v>
+        <v>2.46</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1994,19 +2009,19 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G13">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H13">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="J13">
         <v>1.05</v>
@@ -2021,10 +2036,10 @@
         <v>3.13</v>
       </c>
       <c r="N13">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="P13">
         <v>1.38</v>
@@ -2101,19 +2116,19 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -2128,10 +2143,10 @@
         <v>3.02</v>
       </c>
       <c r="N14">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="P14">
         <v>1.4</v>
@@ -2208,19 +2223,19 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G15">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H15">
-        <v>4.07</v>
+        <v>4.2</v>
       </c>
       <c r="I15">
-        <v>7.19</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>1.01</v>
@@ -2235,10 +2250,10 @@
         <v>3.6</v>
       </c>
       <c r="N15">
+        <v>1.74</v>
+      </c>
+      <c r="O15">
         <v>1.83</v>
-      </c>
-      <c r="O15">
-        <v>1.92</v>
       </c>
       <c r="P15">
         <v>1.36</v>
@@ -2315,58 +2330,58 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2399,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2419,100 +2434,100 @@
         <v>50</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17">
+        <v>3.3</v>
+      </c>
+      <c r="H17">
+        <v>3.3</v>
+      </c>
+      <c r="I17">
+        <v>2.1</v>
+      </c>
+      <c r="J17">
+        <v>1.06</v>
+      </c>
+      <c r="K17">
+        <v>9.5</v>
+      </c>
+      <c r="L17">
+        <v>1.38</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>2.03</v>
+      </c>
+      <c r="O17">
+        <v>1.65</v>
+      </c>
+      <c r="P17">
+        <v>1.44</v>
+      </c>
+      <c r="Q17">
+        <v>2.63</v>
+      </c>
+      <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
         <v>1.8</v>
       </c>
-      <c r="H17">
-        <v>3.33</v>
-      </c>
-      <c r="I17">
-        <v>4.79</v>
-      </c>
-      <c r="J17">
-        <v>1.1</v>
-      </c>
-      <c r="K17">
-        <v>6.5</v>
-      </c>
-      <c r="L17">
-        <v>1.47</v>
-      </c>
-      <c r="M17">
-        <v>2.55</v>
-      </c>
-      <c r="N17">
-        <v>2.4</v>
-      </c>
-      <c r="O17">
-        <v>1.5</v>
-      </c>
-      <c r="P17">
-        <v>1.52</v>
-      </c>
-      <c r="Q17">
-        <v>2.39</v>
-      </c>
-      <c r="R17">
-        <v>2.15</v>
-      </c>
-      <c r="S17">
-        <v>1.61</v>
-      </c>
       <c r="T17">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="U17">
         <v>1.32</v>
       </c>
       <c r="V17">
-        <v>1.93</v>
+        <v>1.29</v>
       </c>
       <c r="W17">
-        <v>2.14</v>
+        <v>1.2</v>
       </c>
       <c r="X17">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="Y17">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="Z17">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AA17">
-        <v>3.13</v>
+        <v>3.8</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2526,100 +2541,100 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G18">
-        <v>3.57</v>
+        <v>1.25</v>
       </c>
       <c r="H18">
-        <v>3.11</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>2.18</v>
+        <v>11</v>
       </c>
       <c r="J18">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="L18">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="M18">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
+        <v>1.62</v>
+      </c>
+      <c r="O18">
+        <v>2.07</v>
+      </c>
+      <c r="P18">
+        <v>1.33</v>
+      </c>
+      <c r="Q18">
+        <v>3.25</v>
+      </c>
+      <c r="R18">
         <v>2.2</v>
       </c>
-      <c r="O18">
-        <v>1.6</v>
-      </c>
-      <c r="P18">
-        <v>1.51</v>
-      </c>
-      <c r="Q18">
-        <v>2.61</v>
-      </c>
-      <c r="R18">
+      <c r="S18">
+        <v>1.62</v>
+      </c>
+      <c r="T18">
+        <v>1.06</v>
+      </c>
+      <c r="U18">
+        <v>1.15</v>
+      </c>
+      <c r="V18">
+        <v>3.3</v>
+      </c>
+      <c r="W18">
         <v>2</v>
       </c>
-      <c r="S18">
-        <v>1.7</v>
-      </c>
-      <c r="T18">
-        <v>1.68</v>
-      </c>
-      <c r="U18">
-        <v>1.35</v>
-      </c>
-      <c r="V18">
-        <v>1.27</v>
-      </c>
-      <c r="W18">
-        <v>0.86</v>
-      </c>
       <c r="X18">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y18">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="Z18">
-        <v>1.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA18">
-        <v>2.85</v>
+        <v>1.97</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2633,100 +2648,100 @@
         <v>50</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
-        <v>4.81</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>10.32</v>
+        <v>2.15</v>
       </c>
       <c r="J19">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K19">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.27</v>
       </c>
       <c r="O19">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="P19">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="Q19">
-        <v>3.25</v>
+        <v>2.61</v>
       </c>
       <c r="R19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>1.06</v>
+        <v>1.68</v>
       </c>
       <c r="U19">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="V19">
-        <v>3.3</v>
+        <v>1.27</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="X19">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y19">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="Z19">
-        <v>0.6899999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="AA19">
+        <v>2.85</v>
+      </c>
+      <c r="AB19">
         <v>1.97</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2740,100 +2755,100 @@
         <v>50</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>3.21</v>
+        <v>1.8</v>
       </c>
       <c r="H20">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
-        <v>1.97</v>
+        <v>4.5</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K20">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N20">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q20">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="T20">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="U20">
         <v>1.32</v>
       </c>
       <c r="V20">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="W20">
-        <v>1.2</v>
+        <v>2.14</v>
       </c>
       <c r="X20">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="Y20">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="Z20">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AA20">
-        <v>3.8</v>
+        <v>3.13</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2850,94 +2865,94 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Y21">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="Z21">
+        <v>0.87</v>
+      </c>
+      <c r="AA21">
+        <v>2.51</v>
+      </c>
+      <c r="AB21">
         <v>1.55</v>
       </c>
-      <c r="AA21">
-        <v>2.98</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2957,73 +2972,73 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G22">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="I22">
-        <v>3.84</v>
+        <v>2.88</v>
       </c>
       <c r="J22">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K22">
-        <v>6.15</v>
+        <v>7.35</v>
       </c>
       <c r="L22">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M22">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N22">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P22">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Q22">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="R22">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="T22">
         <v>1.22</v>
       </c>
       <c r="U22">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V22">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="Z22">
-        <v>0.87</v>
+        <v>1.55</v>
       </c>
       <c r="AA22">
-        <v>2.51</v>
+        <v>2.98</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3052,7 +3067,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2">
         <v>45104</v>
@@ -3064,58 +3079,58 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="W23">
         <v>0.75</v>
@@ -3159,7 +3174,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>45104</v>
@@ -3171,19 +3186,19 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="H24">
-        <v>5.49</v>
+        <v>8.5</v>
       </c>
       <c r="I24">
-        <v>15.7</v>
+        <v>23</v>
       </c>
       <c r="J24">
         <v>1.01</v>
@@ -3198,10 +3213,10 @@
         <v>5.5</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O24">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="P24">
         <v>1.25</v>
@@ -3240,33 +3255,33 @@
         <v>2.6</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
         <v>45104</v>
@@ -3278,19 +3293,19 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G25">
         <v>1.15</v>
       </c>
       <c r="H25">
-        <v>5.32</v>
+        <v>6.5</v>
       </c>
       <c r="I25">
-        <v>14.18</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3305,10 +3320,10 @@
         <v>4.5</v>
       </c>
       <c r="N25">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O25">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="P25">
         <v>1.3</v>
@@ -3347,33 +3362,33 @@
         <v>3.68</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>45104</v>
@@ -3385,19 +3400,19 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G26">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H26">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>1.04</v>
@@ -3412,10 +3427,10 @@
         <v>3.5</v>
       </c>
       <c r="N26">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O26">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="P26">
         <v>1.36</v>
@@ -3454,33 +3469,33 @@
         <v>2.81</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
         <v>45104</v>
@@ -3492,19 +3507,19 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G27">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H27">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="I27">
-        <v>7.76</v>
+        <v>9.5</v>
       </c>
       <c r="J27">
         <v>1.03</v>
@@ -3519,10 +3534,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O27">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="P27">
         <v>1.36</v>
@@ -3561,28 +3576,242 @@
         <v>2.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28">
+        <v>1.53</v>
+      </c>
+      <c r="H28">
+        <v>3.7</v>
+      </c>
+      <c r="I28">
+        <v>6.5</v>
+      </c>
+      <c r="J28">
+        <v>1.06</v>
+      </c>
+      <c r="K28">
+        <v>6.75</v>
+      </c>
+      <c r="L28">
+        <v>1.45</v>
+      </c>
+      <c r="M28">
+        <v>2.65</v>
+      </c>
+      <c r="N28">
+        <v>2.27</v>
+      </c>
+      <c r="O28">
+        <v>1.52</v>
+      </c>
+      <c r="P28">
+        <v>1.49</v>
+      </c>
+      <c r="Q28">
+        <v>2.4</v>
+      </c>
+      <c r="R28">
+        <v>2.37</v>
+      </c>
+      <c r="S28">
+        <v>1.51</v>
+      </c>
+      <c r="T28">
+        <v>1.12</v>
+      </c>
+      <c r="U28">
+        <v>1.27</v>
+      </c>
+      <c r="V28">
+        <v>2.3</v>
+      </c>
+      <c r="W28">
+        <v>2.17</v>
+      </c>
+      <c r="X28">
+        <v>1.33</v>
+      </c>
+      <c r="Y28">
+        <v>1.89</v>
+      </c>
+      <c r="Z28">
+        <v>1.31</v>
+      </c>
+      <c r="AA28">
+        <v>3.2</v>
+      </c>
+      <c r="AB28">
+        <v>1.33</v>
+      </c>
+      <c r="AC28">
+        <v>8.5</v>
+      </c>
+      <c r="AD28">
+        <v>4.33</v>
+      </c>
+      <c r="AE28">
+        <v>1.13</v>
+      </c>
+      <c r="AF28">
+        <v>1.22</v>
+      </c>
+      <c r="AG28">
+        <v>1.48</v>
+      </c>
+      <c r="AH28">
+        <v>1.78</v>
+      </c>
+      <c r="AI28">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29">
+        <v>1.62</v>
+      </c>
+      <c r="H29">
+        <v>3.5</v>
+      </c>
+      <c r="I29">
+        <v>5.5</v>
+      </c>
+      <c r="J29">
+        <v>1.1</v>
+      </c>
+      <c r="K29">
+        <v>6.5</v>
+      </c>
+      <c r="L29">
+        <v>1.42</v>
+      </c>
+      <c r="M29">
+        <v>2.7</v>
+      </c>
+      <c r="N29">
+        <v>2.27</v>
+      </c>
+      <c r="O29">
+        <v>1.52</v>
+      </c>
+      <c r="P29">
+        <v>1.49</v>
+      </c>
+      <c r="Q29">
+        <v>2.45</v>
+      </c>
+      <c r="R29">
+        <v>2.25</v>
+      </c>
+      <c r="S29">
+        <v>1.55</v>
+      </c>
+      <c r="T29">
+        <v>1.13</v>
+      </c>
+      <c r="U29">
+        <v>1.29</v>
+      </c>
+      <c r="V29">
+        <v>2.15</v>
+      </c>
+      <c r="W29">
+        <v>2.33</v>
+      </c>
+      <c r="X29">
+        <v>0.67</v>
+      </c>
+      <c r="Y29">
+        <v>1.98</v>
+      </c>
+      <c r="Z29">
+        <v>1.54</v>
+      </c>
+      <c r="AA29">
+        <v>3.52</v>
+      </c>
+      <c r="AB29">
+        <v>1.45</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>3.5</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>1.21</v>
+      </c>
+      <c r="AG29">
+        <v>1.44</v>
+      </c>
+      <c r="AH29">
+        <v>1.74</v>
+      </c>
+      <c r="AI29">
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -139,12 +139,12 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -160,7 +160,7 @@
     <t>14:00:00</t>
   </si>
   <si>
-    <t>14:30:00</t>
+    <t>15:30:00</t>
   </si>
   <si>
     <t>16:00:00</t>
@@ -181,25 +181,28 @@
     <t>Atlètic Club d'Escaldes</t>
   </si>
   <si>
+    <t>KuPS</t>
+  </si>
+  <si>
     <t>Inter Turku</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
+    <t>Haka</t>
+  </si>
+  <si>
+    <t>Honka</t>
+  </si>
+  <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>KuPS</t>
-  </si>
-  <si>
     <t>Kuressaare</t>
   </si>
   <si>
-    <t>Haka</t>
-  </si>
-  <si>
-    <t>Honka</t>
+    <t>Ben Guerdane</t>
   </si>
   <si>
     <t>ES Tunis</t>
@@ -208,9 +211,6 @@
     <t>CS Sfaxien</t>
   </si>
   <si>
-    <t>Ben Guerdane</t>
-  </si>
-  <si>
     <t>Tammeka</t>
   </si>
   <si>
@@ -223,33 +223,33 @@
     <t>Tre Penne</t>
   </si>
   <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
     <t>Libertad</t>
   </si>
   <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
     <t>Criciúma</t>
   </si>
   <si>
+    <t>Potiguar Mossoró</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
     <t>Botafogo PB</t>
   </si>
   <si>
-    <t>Potiguar Mossoró</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
+    <t>Fluminense</t>
   </si>
   <si>
     <t>River Plate</t>
   </si>
   <si>
-    <t>Fluminense</t>
-  </si>
-  <si>
     <t>Olimpia</t>
   </si>
   <si>
@@ -265,25 +265,28 @@
     <t>Budućnost</t>
   </si>
   <si>
+    <t>Mariehamn</t>
+  </si>
+  <si>
     <t>Ilves</t>
   </si>
   <si>
     <t>Lahti</t>
   </si>
   <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>VPS</t>
+  </si>
+  <si>
     <t>Oulu</t>
   </si>
   <si>
-    <t>Mariehamn</t>
-  </si>
-  <si>
     <t>Trans</t>
   </si>
   <si>
-    <t>HJK</t>
-  </si>
-  <si>
-    <t>VPS</t>
+    <t>Etoile du Sahel</t>
   </si>
   <si>
     <t>Club Africain</t>
@@ -292,9 +295,6 @@
     <t>Tataouine</t>
   </si>
   <si>
-    <t>Etoile du Sahel</t>
-  </si>
-  <si>
     <t>Vaprus</t>
   </si>
   <si>
@@ -307,31 +307,31 @@
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>Atlético Mineiro</t>
   </si>
   <si>
-    <t>Alianza Lima</t>
-  </si>
-  <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
     <t>CRB</t>
   </si>
   <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
     <t>Paysandu</t>
   </si>
   <si>
-    <t>Pacajus</t>
-  </si>
-  <si>
-    <t>Cruzeiro Arapiraca</t>
+    <t>Sporting Cristal</t>
   </si>
   <si>
     <t>The Strongest</t>
-  </si>
-  <si>
-    <t>Sporting Cristal</t>
   </si>
   <si>
     <t>Melgar</t>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
         <v>1.64</v>
@@ -919,10 +919,10 @@
         <v>2.03</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -945,91 +945,91 @@
         <v>83</v>
       </c>
       <c r="G3">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>4.45</v>
       </c>
       <c r="I3">
-        <v>3.4</v>
+        <v>7.95</v>
       </c>
       <c r="J3">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="L3">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M3">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="P3">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q3">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T3">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="U3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="V3">
-        <v>1.83</v>
+        <v>2.9</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="Z3">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AB3">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AC3">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD3">
-        <v>3.07</v>
+        <v>4.07</v>
       </c>
       <c r="AE3">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AF3">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AG3">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AH3">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AI3">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1043,7 +1043,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -1052,91 +1052,91 @@
         <v>84</v>
       </c>
       <c r="G4">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>4.15</v>
       </c>
       <c r="J4">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="L4">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="M4">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="N4">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="P4">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R4">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U4">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W4">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="Z4">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="AA4">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AC4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4">
+        <v>3.07</v>
+      </c>
+      <c r="AE4">
+        <v>1.24</v>
+      </c>
+      <c r="AF4">
+        <v>1.45</v>
+      </c>
+      <c r="AG4">
+        <v>1.8</v>
+      </c>
+      <c r="AH4">
         <v>2.33</v>
       </c>
-      <c r="AE4">
-        <v>1.18</v>
-      </c>
-      <c r="AF4">
-        <v>1.34</v>
-      </c>
-      <c r="AG4">
-        <v>1.6</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
-      </c>
       <c r="AI4">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1159,91 +1159,91 @@
         <v>85</v>
       </c>
       <c r="G5">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I5">
-        <v>4.25</v>
+        <v>3.15</v>
       </c>
       <c r="J5">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L5">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="M5">
+        <v>4.1</v>
+      </c>
+      <c r="N5">
+        <v>1.9</v>
+      </c>
+      <c r="O5">
+        <v>1.87</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.11</v>
-      </c>
-      <c r="O5">
-        <v>1.67</v>
-      </c>
-      <c r="P5">
-        <v>1.44</v>
-      </c>
-      <c r="Q5">
-        <v>2.63</v>
-      </c>
       <c r="R5">
+        <v>1.7</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>1.3</v>
+      </c>
+      <c r="U5">
+        <v>1.22</v>
+      </c>
+      <c r="V5">
+        <v>1.75</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1.27</v>
+      </c>
+      <c r="Z5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>2.21</v>
+      </c>
+      <c r="AB5">
+        <v>1.82</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>2.33</v>
+      </c>
+      <c r="AE5">
+        <v>1.18</v>
+      </c>
+      <c r="AF5">
+        <v>1.34</v>
+      </c>
+      <c r="AG5">
+        <v>1.6</v>
+      </c>
+      <c r="AH5">
         <v>2</v>
       </c>
-      <c r="S5">
-        <v>1.75</v>
-      </c>
-      <c r="T5">
-        <v>1.22</v>
-      </c>
-      <c r="U5">
-        <v>1.33</v>
-      </c>
-      <c r="V5">
-        <v>2.05</v>
-      </c>
-      <c r="W5">
-        <v>2.67</v>
-      </c>
-      <c r="X5">
-        <v>1.83</v>
-      </c>
-      <c r="Y5">
-        <v>1.6</v>
-      </c>
-      <c r="Z5">
-        <v>1.32</v>
-      </c>
-      <c r="AA5">
-        <v>2.92</v>
-      </c>
-      <c r="AB5">
-        <v>1.51</v>
-      </c>
-      <c r="AC5">
-        <v>9</v>
-      </c>
-      <c r="AD5">
-        <v>3.06</v>
-      </c>
-      <c r="AE5">
-        <v>1.17</v>
-      </c>
-      <c r="AF5">
-        <v>1.3</v>
-      </c>
-      <c r="AG5">
-        <v>1.56</v>
-      </c>
-      <c r="AH5">
-        <v>1.95</v>
-      </c>
       <c r="AI5">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1257,7 +1257,7 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1266,96 +1266,96 @@
         <v>86</v>
       </c>
       <c r="G6">
-        <v>1.33</v>
+        <v>4.95</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="J6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="L6">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="N6">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.7</v>
+      </c>
+      <c r="T6">
+        <v>2.12</v>
+      </c>
+      <c r="U6">
+        <v>1.29</v>
+      </c>
+      <c r="V6">
+        <v>1.17</v>
+      </c>
+      <c r="W6">
+        <v>1.4</v>
+      </c>
+      <c r="X6">
+        <v>1.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.26</v>
+      </c>
+      <c r="Z6">
+        <v>1.74</v>
+      </c>
+      <c r="AA6">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>2.1</v>
-      </c>
-      <c r="S6">
-        <v>1.67</v>
-      </c>
-      <c r="T6">
-        <v>1.08</v>
-      </c>
-      <c r="U6">
-        <v>1.2</v>
-      </c>
-      <c r="V6">
-        <v>2.9</v>
-      </c>
-      <c r="W6">
-        <v>2.14</v>
-      </c>
-      <c r="X6">
-        <v>0.2</v>
-      </c>
-      <c r="Y6">
-        <v>1.58</v>
-      </c>
-      <c r="Z6">
-        <v>1.26</v>
-      </c>
-      <c r="AA6">
-        <v>2.84</v>
-      </c>
       <c r="AB6">
+        <v>3.49</v>
+      </c>
+      <c r="AC6">
+        <v>9</v>
+      </c>
+      <c r="AD6">
+        <v>1.41</v>
+      </c>
+      <c r="AE6">
+        <v>1.18</v>
+      </c>
+      <c r="AF6">
         <v>1.34</v>
       </c>
-      <c r="AC6">
-        <v>9.5</v>
-      </c>
-      <c r="AD6">
-        <v>4.07</v>
-      </c>
-      <c r="AE6">
-        <v>1.21</v>
-      </c>
-      <c r="AF6">
-        <v>1.38</v>
-      </c>
       <c r="AG6">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AH6">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>45104</v>
@@ -1364,7 +1364,7 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -1373,91 +1373,91 @@
         <v>87</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="H7">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>1.04</v>
       </c>
       <c r="K7">
-        <v>12.75</v>
+        <v>7.8</v>
       </c>
       <c r="L7">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>1.62</v>
+      </c>
+      <c r="P7">
+        <v>1.44</v>
+      </c>
+      <c r="Q7">
+        <v>2.63</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.7</v>
+      </c>
+      <c r="T7">
+        <v>1.17</v>
+      </c>
+      <c r="U7">
+        <v>1.29</v>
+      </c>
+      <c r="V7">
+        <v>2.1</v>
+      </c>
+      <c r="W7">
+        <v>1.17</v>
+      </c>
+      <c r="X7">
+        <v>0.2</v>
+      </c>
+      <c r="Y7">
+        <v>1.53</v>
+      </c>
+      <c r="Z7">
+        <v>1.34</v>
+      </c>
+      <c r="AA7">
+        <v>2.87</v>
+      </c>
+      <c r="AB7">
+        <v>1.41</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
+        <v>3.58</v>
+      </c>
+      <c r="AE7">
+        <v>1.21</v>
+      </c>
+      <c r="AF7">
+        <v>1.38</v>
+      </c>
+      <c r="AG7">
         <v>1.68</v>
       </c>
-      <c r="O7">
-        <v>1.83</v>
-      </c>
-      <c r="P7">
-        <v>1.33</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>1.65</v>
-      </c>
-      <c r="S7">
-        <v>2.18</v>
-      </c>
-      <c r="T7">
-        <v>1.29</v>
-      </c>
-      <c r="U7">
-        <v>1.25</v>
-      </c>
-      <c r="V7">
-        <v>1.67</v>
-      </c>
-      <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>1.25</v>
-      </c>
-      <c r="Y7">
-        <v>1.54</v>
-      </c>
-      <c r="Z7">
-        <v>1.23</v>
-      </c>
-      <c r="AA7">
-        <v>2.77</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1480,31 +1480,31 @@
         <v>88</v>
       </c>
       <c r="G8">
-        <v>4.75</v>
+        <v>1.84</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8">
-        <v>1.67</v>
+        <v>4.45</v>
       </c>
       <c r="J8">
         <v>1.07</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M8">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P8">
         <v>1.44</v>
@@ -1513,63 +1513,63 @@
         <v>2.63</v>
       </c>
       <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.75</v>
+      </c>
+      <c r="T8">
+        <v>1.22</v>
+      </c>
+      <c r="U8">
+        <v>1.33</v>
+      </c>
+      <c r="V8">
         <v>2.05</v>
       </c>
-      <c r="S8">
-        <v>1.7</v>
-      </c>
-      <c r="T8">
-        <v>2.12</v>
-      </c>
-      <c r="U8">
-        <v>1.29</v>
-      </c>
-      <c r="V8">
-        <v>1.17</v>
-      </c>
       <c r="W8">
-        <v>1.4</v>
+        <v>2.67</v>
       </c>
       <c r="X8">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Y8">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="Z8">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AB8">
-        <v>3.49</v>
+        <v>1.51</v>
       </c>
       <c r="AC8">
         <v>9</v>
       </c>
       <c r="AD8">
-        <v>1.41</v>
+        <v>3.06</v>
       </c>
       <c r="AE8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF8">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AG8">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI8">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>45104</v>
@@ -1578,7 +1578,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -1587,91 +1587,91 @@
         <v>89</v>
       </c>
       <c r="G9">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="H9">
         <v>3.5</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J9">
         <v>1.04</v>
       </c>
       <c r="K9">
-        <v>7.8</v>
+        <v>12.75</v>
       </c>
       <c r="L9">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="M9">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1.33</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1.65</v>
+      </c>
+      <c r="S9">
+        <v>2.18</v>
+      </c>
+      <c r="T9">
+        <v>1.29</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
         <v>1.67</v>
       </c>
-      <c r="P9">
-        <v>1.44</v>
-      </c>
-      <c r="Q9">
-        <v>2.63</v>
-      </c>
-      <c r="R9">
-        <v>2.05</v>
-      </c>
-      <c r="S9">
-        <v>1.7</v>
-      </c>
-      <c r="T9">
-        <v>1.17</v>
-      </c>
-      <c r="U9">
-        <v>1.29</v>
-      </c>
-      <c r="V9">
-        <v>2.1</v>
-      </c>
       <c r="W9">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Z9">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AA9">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AB9">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>2.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1694,67 +1694,67 @@
         <v>90</v>
       </c>
       <c r="G10">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="J10">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="N10">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="O10">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P10">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="T10">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="X10">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="Y10">
-        <v>1.96</v>
+        <v>1.41</v>
       </c>
       <c r="Z10">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>2.95</v>
+        <v>2.46</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1801,67 +1801,67 @@
         <v>91</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="W11">
-        <v>1.12</v>
+        <v>1.96</v>
       </c>
       <c r="X11">
-        <v>0.77</v>
+        <v>1.77</v>
       </c>
       <c r="Y11">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="Z11">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
       <c r="AA11">
-        <v>2.13</v>
+        <v>2.95</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>92</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="X12">
-        <v>2.15</v>
+        <v>0.77</v>
       </c>
       <c r="Y12">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="Z12">
-        <v>1.05</v>
+        <v>0.65</v>
       </c>
       <c r="AA12">
-        <v>2.46</v>
+        <v>2.13</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>93</v>
       </c>
       <c r="G13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="J13">
         <v>1.05</v>
@@ -2036,10 +2036,10 @@
         <v>3.13</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P13">
         <v>1.38</v>
@@ -2122,13 +2122,13 @@
         <v>94</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -2229,10 +2229,10 @@
         <v>95</v>
       </c>
       <c r="G15">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>7</v>
@@ -2250,10 +2250,10 @@
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O15">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P15">
         <v>1.36</v>
@@ -2339,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2357,10 +2357,10 @@
         <v>5.25</v>
       </c>
       <c r="N16">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="O16">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="P16">
         <v>1.22</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG16">
         <v>1.5</v>
@@ -2443,96 +2443,96 @@
         <v>97</v>
       </c>
       <c r="G17">
+        <v>1.3</v>
+      </c>
+      <c r="H17">
+        <v>5.5</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>1.03</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>1.25</v>
+      </c>
+      <c r="M17">
+        <v>3.75</v>
+      </c>
+      <c r="N17">
+        <v>1.75</v>
+      </c>
+      <c r="O17">
+        <v>2.05</v>
+      </c>
+      <c r="P17">
+        <v>1.33</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>1.62</v>
+      </c>
+      <c r="T17">
+        <v>1.06</v>
+      </c>
+      <c r="U17">
+        <v>1.15</v>
+      </c>
+      <c r="V17">
         <v>3.3</v>
       </c>
-      <c r="H17">
-        <v>3.3</v>
-      </c>
-      <c r="I17">
-        <v>2.1</v>
-      </c>
-      <c r="J17">
-        <v>1.06</v>
-      </c>
-      <c r="K17">
-        <v>9.5</v>
-      </c>
-      <c r="L17">
-        <v>1.38</v>
-      </c>
-      <c r="M17">
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0.8</v>
+      </c>
+      <c r="Y17">
+        <v>1.28</v>
+      </c>
+      <c r="Z17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>1.97</v>
+      </c>
+      <c r="AB17">
+        <v>1.25</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>5.25</v>
+      </c>
+      <c r="AE17">
+        <v>1.21</v>
+      </c>
+      <c r="AF17">
+        <v>1.4</v>
+      </c>
+      <c r="AG17">
+        <v>1.72</v>
+      </c>
+      <c r="AH17">
+        <v>2.2</v>
+      </c>
+      <c r="AI17">
         <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2.03</v>
-      </c>
-      <c r="O17">
-        <v>1.65</v>
-      </c>
-      <c r="P17">
-        <v>1.44</v>
-      </c>
-      <c r="Q17">
-        <v>2.63</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.8</v>
-      </c>
-      <c r="T17">
-        <v>1.7</v>
-      </c>
-      <c r="U17">
-        <v>1.32</v>
-      </c>
-      <c r="V17">
-        <v>1.29</v>
-      </c>
-      <c r="W17">
-        <v>1.2</v>
-      </c>
-      <c r="X17">
-        <v>1.89</v>
-      </c>
-      <c r="Y17">
-        <v>2.25</v>
-      </c>
-      <c r="Z17">
-        <v>1.55</v>
-      </c>
-      <c r="AA17">
-        <v>3.8</v>
-      </c>
-      <c r="AB17">
-        <v>2.6</v>
-      </c>
-      <c r="AC17">
-        <v>6.5</v>
-      </c>
-      <c r="AD17">
-        <v>1.78</v>
-      </c>
-      <c r="AE17">
-        <v>1.25</v>
-      </c>
-      <c r="AF17">
-        <v>1.54</v>
-      </c>
-      <c r="AG17">
-        <v>1.88</v>
-      </c>
-      <c r="AH17">
-        <v>2.32</v>
-      </c>
-      <c r="AI17">
-        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>45104</v>
@@ -2541,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
@@ -2550,96 +2550,96 @@
         <v>98</v>
       </c>
       <c r="G18">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>2.05</v>
       </c>
       <c r="J18">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K18">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="N18">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="O18">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="P18">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="Q18">
-        <v>3.25</v>
+        <v>2.61</v>
       </c>
       <c r="R18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
-        <v>1.06</v>
+        <v>1.68</v>
       </c>
       <c r="U18">
+        <v>1.35</v>
+      </c>
+      <c r="V18">
+        <v>1.27</v>
+      </c>
+      <c r="W18">
+        <v>0.86</v>
+      </c>
+      <c r="X18">
+        <v>1.2</v>
+      </c>
+      <c r="Y18">
+        <v>1.54</v>
+      </c>
+      <c r="Z18">
+        <v>1.31</v>
+      </c>
+      <c r="AA18">
+        <v>2.85</v>
+      </c>
+      <c r="AB18">
+        <v>1.97</v>
+      </c>
+      <c r="AC18">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>2.09</v>
+      </c>
+      <c r="AE18">
         <v>1.15</v>
       </c>
-      <c r="V18">
-        <v>3.3</v>
-      </c>
-      <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="X18">
-        <v>0.8</v>
-      </c>
-      <c r="Y18">
-        <v>1.28</v>
-      </c>
-      <c r="Z18">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA18">
-        <v>1.97</v>
-      </c>
-      <c r="AB18">
-        <v>1.25</v>
-      </c>
-      <c r="AC18">
-        <v>9</v>
-      </c>
-      <c r="AD18">
-        <v>5.25</v>
-      </c>
-      <c r="AE18">
-        <v>1.21</v>
-      </c>
       <c r="AF18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AG18">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AH18">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>45104</v>
@@ -2648,7 +2648,7 @@
         <v>50</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
@@ -2660,88 +2660,88 @@
         <v>3.5</v>
       </c>
       <c r="H19">
+        <v>3.5</v>
+      </c>
+      <c r="I19">
+        <v>2.05</v>
+      </c>
+      <c r="J19">
+        <v>1.06</v>
+      </c>
+      <c r="K19">
+        <v>9.5</v>
+      </c>
+      <c r="L19">
+        <v>1.38</v>
+      </c>
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="N19">
         <v>2.15</v>
       </c>
-      <c r="J19">
-        <v>1.08</v>
-      </c>
-      <c r="K19">
+      <c r="O19">
+        <v>1.68</v>
+      </c>
+      <c r="P19">
+        <v>1.44</v>
+      </c>
+      <c r="Q19">
+        <v>2.63</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
+        <v>1.7</v>
+      </c>
+      <c r="U19">
+        <v>1.32</v>
+      </c>
+      <c r="V19">
+        <v>1.29</v>
+      </c>
+      <c r="W19">
+        <v>1.2</v>
+      </c>
+      <c r="X19">
+        <v>1.89</v>
+      </c>
+      <c r="Y19">
+        <v>2.25</v>
+      </c>
+      <c r="Z19">
+        <v>1.55</v>
+      </c>
+      <c r="AA19">
+        <v>3.8</v>
+      </c>
+      <c r="AB19">
+        <v>2.6</v>
+      </c>
+      <c r="AC19">
         <v>6.5</v>
       </c>
-      <c r="L19">
-        <v>1.43</v>
-      </c>
-      <c r="M19">
-        <v>2.63</v>
-      </c>
-      <c r="N19">
-        <v>2.27</v>
-      </c>
-      <c r="O19">
-        <v>1.52</v>
-      </c>
-      <c r="P19">
-        <v>1.51</v>
-      </c>
-      <c r="Q19">
-        <v>2.61</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19">
-        <v>1.7</v>
-      </c>
-      <c r="T19">
-        <v>1.68</v>
-      </c>
-      <c r="U19">
-        <v>1.35</v>
-      </c>
-      <c r="V19">
-        <v>1.27</v>
-      </c>
-      <c r="W19">
-        <v>0.86</v>
-      </c>
-      <c r="X19">
-        <v>1.2</v>
-      </c>
-      <c r="Y19">
+      <c r="AD19">
+        <v>1.78</v>
+      </c>
+      <c r="AE19">
+        <v>1.25</v>
+      </c>
+      <c r="AF19">
         <v>1.54</v>
       </c>
-      <c r="Z19">
-        <v>1.31</v>
-      </c>
-      <c r="AA19">
-        <v>2.85</v>
-      </c>
-      <c r="AB19">
-        <v>1.97</v>
-      </c>
-      <c r="AC19">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD19">
-        <v>2.09</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1.27</v>
-      </c>
       <c r="AG19">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="AI19">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2764,13 +2764,13 @@
         <v>100</v>
       </c>
       <c r="G20">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H20">
         <v>3.3</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J20">
         <v>1.1</v>
@@ -2779,16 +2779,16 @@
         <v>6.5</v>
       </c>
       <c r="L20">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M20">
         <v>2.55</v>
       </c>
       <c r="N20">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P20">
         <v>1.52</v>
@@ -2836,7 +2836,7 @@
         <v>3.5</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF20">
         <v>1.36</v>
@@ -2871,88 +2871,88 @@
         <v>101</v>
       </c>
       <c r="G21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J21">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K21">
-        <v>6.15</v>
+        <v>7.35</v>
       </c>
       <c r="L21">
+        <v>1.51</v>
+      </c>
+      <c r="M21">
+        <v>2.4</v>
+      </c>
+      <c r="N21">
+        <v>2.4</v>
+      </c>
+      <c r="O21">
         <v>1.5</v>
       </c>
-      <c r="M21">
-        <v>2.3</v>
-      </c>
-      <c r="N21">
-        <v>2.52</v>
-      </c>
-      <c r="O21">
-        <v>1.4</v>
-      </c>
       <c r="P21">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Q21">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="R21">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
       <c r="S21">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="T21">
         <v>1.22</v>
       </c>
       <c r="U21">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V21">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="Z21">
-        <v>0.87</v>
+        <v>1.55</v>
       </c>
       <c r="AA21">
-        <v>2.51</v>
+        <v>2.98</v>
       </c>
       <c r="AB21">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="AH21">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
         <v>45104</v>
@@ -2978,67 +2978,67 @@
         <v>102</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I22">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="J22">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>7.35</v>
+        <v>11.5</v>
       </c>
       <c r="L22">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="M22">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O22">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="P22">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="Q22">
-        <v>2.39</v>
+        <v>2.74</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S22">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="T22">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="U22">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="V22">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="W22">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="Z22">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="AA22">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3085,91 +3085,91 @@
         <v>103</v>
       </c>
       <c r="G23">
+        <v>1.87</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4.33</v>
+      </c>
+      <c r="J23">
+        <v>1.08</v>
+      </c>
+      <c r="K23">
+        <v>6.15</v>
+      </c>
+      <c r="L23">
+        <v>1.52</v>
+      </c>
+      <c r="M23">
+        <v>2.37</v>
+      </c>
+      <c r="N23">
+        <v>2.52</v>
+      </c>
+      <c r="O23">
         <v>1.4</v>
       </c>
-      <c r="H23">
+      <c r="P23">
+        <v>1.53</v>
+      </c>
+      <c r="Q23">
+        <v>2.3</v>
+      </c>
+      <c r="R23">
+        <v>2.35</v>
+      </c>
+      <c r="S23">
+        <v>1.52</v>
+      </c>
+      <c r="T23">
+        <v>1.22</v>
+      </c>
+      <c r="U23">
+        <v>1.32</v>
+      </c>
+      <c r="V23">
+        <v>1.83</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>0.25</v>
+      </c>
+      <c r="Y23">
+        <v>1.64</v>
+      </c>
+      <c r="Z23">
+        <v>0.87</v>
+      </c>
+      <c r="AA23">
+        <v>2.51</v>
+      </c>
+      <c r="AB23">
+        <v>1.55</v>
+      </c>
+      <c r="AC23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD23">
+        <v>2.89</v>
+      </c>
+      <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
+        <v>1.55</v>
+      </c>
+      <c r="AG23">
+        <v>1.68</v>
+      </c>
+      <c r="AH23">
+        <v>2.07</v>
+      </c>
+      <c r="AI23">
         <v>3.5</v>
-      </c>
-      <c r="I23">
-        <v>8.5</v>
-      </c>
-      <c r="J23">
-        <v>1.05</v>
-      </c>
-      <c r="K23">
-        <v>11.5</v>
-      </c>
-      <c r="L23">
-        <v>1.29</v>
-      </c>
-      <c r="M23">
-        <v>3.18</v>
-      </c>
-      <c r="N23">
-        <v>1.95</v>
-      </c>
-      <c r="O23">
-        <v>1.85</v>
-      </c>
-      <c r="P23">
-        <v>1.38</v>
-      </c>
-      <c r="Q23">
-        <v>2.74</v>
-      </c>
-      <c r="R23">
-        <v>2.09</v>
-      </c>
-      <c r="S23">
-        <v>1.71</v>
-      </c>
-      <c r="T23">
-        <v>1.07</v>
-      </c>
-      <c r="U23">
-        <v>1.19</v>
-      </c>
-      <c r="V23">
-        <v>2.56</v>
-      </c>
-      <c r="W23">
-        <v>0.75</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>2.33</v>
-      </c>
-      <c r="Z23">
-        <v>1.17</v>
-      </c>
-      <c r="AA23">
-        <v>3.5</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3192,91 +3192,91 @@
         <v>104</v>
       </c>
       <c r="G24">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H24">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J24">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M24">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N24">
         <v>1.65</v>
       </c>
       <c r="O24">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="P24">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q24">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R24">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S24">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T24">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U24">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="V24">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="W24">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X24">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="Y24">
-        <v>1.87</v>
+        <v>2.56</v>
       </c>
       <c r="Z24">
-        <v>0.73</v>
+        <v>1.12</v>
       </c>
       <c r="AA24">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="AB24">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD24">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="AE24">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="AG24">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="AH24">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="AI24">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3299,91 +3299,91 @@
         <v>105</v>
       </c>
       <c r="G25">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="H25">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L25">
+        <v>1.14</v>
+      </c>
+      <c r="M25">
+        <v>5.5</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>2.4</v>
+      </c>
+      <c r="P25">
+        <v>1.25</v>
+      </c>
+      <c r="Q25">
+        <v>3.75</v>
+      </c>
+      <c r="R25">
+        <v>2.75</v>
+      </c>
+      <c r="S25">
+        <v>1.4</v>
+      </c>
+      <c r="T25">
+        <v>1.01</v>
+      </c>
+      <c r="U25">
+        <v>1.06</v>
+      </c>
+      <c r="V25">
+        <v>6.25</v>
+      </c>
+      <c r="W25">
+        <v>1.4</v>
+      </c>
+      <c r="X25">
         <v>1.2</v>
       </c>
-      <c r="M25">
-        <v>4.5</v>
-      </c>
-      <c r="N25">
-        <v>1.65</v>
-      </c>
-      <c r="O25">
-        <v>2.03</v>
-      </c>
-      <c r="P25">
-        <v>1.3</v>
-      </c>
-      <c r="Q25">
-        <v>3.4</v>
-      </c>
-      <c r="R25">
-        <v>2.63</v>
-      </c>
-      <c r="S25">
-        <v>1.44</v>
-      </c>
-      <c r="T25">
-        <v>1.02</v>
-      </c>
-      <c r="U25">
-        <v>1.08</v>
-      </c>
-      <c r="V25">
-        <v>4.75</v>
-      </c>
-      <c r="W25">
-        <v>1.8</v>
-      </c>
-      <c r="X25">
-        <v>1.56</v>
-      </c>
       <c r="Y25">
-        <v>2.56</v>
+        <v>1.87</v>
       </c>
       <c r="Z25">
-        <v>1.12</v>
+        <v>0.73</v>
       </c>
       <c r="AA25">
-        <v>3.68</v>
+        <v>2.6</v>
       </c>
       <c r="AB25">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AC25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF25">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="AG25">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="AH25">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="AI25">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3409,7 +3409,7 @@
         <v>1.53</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -3427,10 +3427,10 @@
         <v>3.5</v>
       </c>
       <c r="N26">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="P26">
         <v>1.36</v>
@@ -3513,13 +3513,13 @@
         <v>107</v>
       </c>
       <c r="G27">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H27">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="I27">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>1.03</v>
@@ -3534,10 +3534,10 @@
         <v>3.75</v>
       </c>
       <c r="N27">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>1.36</v>
@@ -3620,10 +3620,10 @@
         <v>108</v>
       </c>
       <c r="G28">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H28">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I28">
         <v>6.5</v>
@@ -3641,10 +3641,10 @@
         <v>2.65</v>
       </c>
       <c r="N28">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="P28">
         <v>1.49</v>
@@ -3733,7 +3733,7 @@
         <v>3.5</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>1.1</v>
@@ -3748,10 +3748,10 @@
         <v>2.7</v>
       </c>
       <c r="N29">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="O29">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P29">
         <v>1.49</v>
@@ -3799,7 +3799,7 @@
         <v>3.5</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF29">
         <v>1.21</v>
